--- a/biology/Microbiologie/Rathayibacter_toxicus/Rathayibacter_toxicus.xlsx
+++ b/biology/Microbiologie/Rathayibacter_toxicus/Rathayibacter_toxicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rathayibacter toxicus (syn. Clavibacter toxicus) est une bactérie phytopathogène connue pour provoquer une maladie du bétail, la  toxicose du ray-grass annuel, commune en  Australie-Méridionale et en  Occidentale[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rathayibacter toxicus (syn. Clavibacter toxicus) est une bactérie phytopathogène connue pour provoquer une maladie du bétail, la  toxicose du ray-grass annuel, commune en  Australie-Méridionale et en  Occidentale,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Rathayibacter, est un hommage à E. Rathay, phytopathologiste qui isola en premier des souches de ce genre de bactéries, avec le suffixe « -bacter » qui signifie « bâtonnet » en latin[4].
-L'épithète spécifique, toxicus, dérive d'un terme latin signifiant « poison », en référence à la capacité de Rathayibacter toxicus de produire des corynetoxines[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Rathayibacter, est un hommage à E. Rathay, phytopathologiste qui isola en premier des souches de ce genre de bactéries, avec le suffixe « -bacter » qui signifie « bâtonnet » en latin.
+L'épithète spécifique, toxicus, dérive d'un terme latin signifiant « poison », en référence à la capacité de Rathayibacter toxicus de produire des corynetoxines.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce initialement décrite sous le nom Clavibacter toxicus Riley &amp; Ophel 1992[5] a été déplacée dans le genre Rathayibacter par Sasaki et al. 1998[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce initialement décrite sous le nom Clavibacter toxicus Riley &amp; Ophel 1992 a été déplacée dans le genre Rathayibacter par Sasaki et al. 1998.
 </t>
         </is>
       </c>
